--- a/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2172D-70D8-4DA1-86EB-51E27EEFEA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB386EF7-E461-4EE7-ADCC-274D6E9A199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,12 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -497,7 +502,12 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -539,15 +549,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB386EF7-E461-4EE7-ADCC-274D6E9A199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711C9BB-B958-476B-8AAE-1480E0DB8CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,12 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -556,11 +561,13 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 17 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711C9BB-B958-476B-8AAE-1480E0DB8CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17276BEE-3DBD-4BA7-BA3E-B3739DC3A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,8 +545,11 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -564,10 +567,12 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
